--- a/数据挖掘实战-财经数据 bert 分类/bert_Model loss accuracy_data.xlsx
+++ b/数据挖掘实战-财经数据 bert 分类/bert_Model loss accuracy_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,28 +485,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7833953925541469</v>
+        <v>0.8627661069234213</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2961309523809523</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.273202614379085</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9136758115556505</v>
+        <v>1.02304995059967</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +514,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.782598302477882</v>
+        <v>0.9020038786388579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1875</v>
+        <v>0.025</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1558704453441296</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8523121939765083</v>
+        <v>0.9045572413338555</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3396825396825396</v>
+        <v>0.1371428571428571</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +543,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7990726175762358</v>
+        <v>0.8141161543982369</v>
       </c>
       <c r="C4" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2708333333333334</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2023809523809524</v>
+        <v>0.2227272727272727</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9041360219319662</v>
+        <v>0.8892078929477267</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +572,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8395548320951915</v>
+        <v>0.8525012901851109</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2752976190476191</v>
+        <v>0.075</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2261363636363636</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8551688061820136</v>
+        <v>0.9499408404032389</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H5" t="n">
-        <v>0.24</v>
+        <v>0.125</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1809523809523809</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +601,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.867662197067624</v>
+        <v>0.7710074356624058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.2357142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07777777777777777</v>
+        <v>0.2120300751879699</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9393821292453342</v>
+        <v>0.9325898488362631</v>
       </c>
       <c r="G6" t="n">
         <v>0.2222222222222222</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1238095238095238</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.793701035635812</v>
+        <v>0.8440497545968919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1682051282051282</v>
+        <v>0.1277310924369748</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8525020016564263</v>
+        <v>0.9327337079577975</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="8">
@@ -659,28 +659,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7602456581024897</v>
+        <v>0.78585965576626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4136904761904762</v>
+        <v>0.2357142857142857</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4122103386809269</v>
+        <v>0.2186234817813765</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9049333996242948</v>
+        <v>0.9980906645456949</v>
       </c>
       <c r="G8" t="n">
         <v>0.2222222222222222</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.14</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1371428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -688,86 +688,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7836401576087588</v>
+        <v>0.766839549655006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.2544642857142857</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1283333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8798319498697916</v>
+        <v>0.900973359743754</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.175</v>
+        <v>0.3</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.7487370456968035</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.3630952380952381</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.3620915032679738</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9117077324125502</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.2063492063492064</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.7590373868033999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.4196428571428572</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4378342245989305</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.924042714966668</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
+        <v>0.1964285714285714</v>
       </c>
     </row>
   </sheetData>
